--- a/data/georgia_census/kakheti/gurjaani/education_graduates.xlsx
+++ b/data/georgia_census/kakheti/gurjaani/education_graduates.xlsx
@@ -1847,13 +1847,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0579BDE9-E9B1-45FC-B4E3-161A34D86CFB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D9BDB85-22FD-4AC1-911A-105D73FF893D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71F912CF-10A9-4F2E-9969-776C2D7102D2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4522A465-367C-4ED1-A6D3-DEC87C72633C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6018CF9D-F9F0-4B0E-A0B4-DCCEE46217E6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{125C91BA-9C6E-47C7-AD2A-1CD2AC20D816}"/>
 </file>